--- a/Datos/Database by set/Set with text box/Xlsx sets/Dissension Promos (PDIS).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Dissension Promos (PDIS).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,91 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Avatar of Discord</t>
+          <t>('Avatar of Discord', ['{B/R}{B/R}{B/R}', 'Creature — Avatar', '({B/R} can be paid with either {B} or {R}.)', 'Flying', 'When Avatar of Discord enters the battlefield, sacrifice it unless you discard two cards.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{B/R}{B/R}{B/R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>({B/R} can be paid with either {B} or {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>When Avatar of Discord enters the battlefield, sacrifice it unless you discard two cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Azorius Guildmage</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{W/U}{W/U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Creature — Vedalken Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{2}{W}: Tap target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{2}{U}: Counter target activated ability. (Mana abilities can’t be targeted.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Azorius Guildmage', ['{W/U}{W/U}', 'Creature — Vedalken Wizard', '{2}{W}: Tap target creature.', '{2}{U}: Counter target activated ability. (Mana abilities can’t be targeted.)', '2/2'])</t>
         </is>
       </c>
     </row>
